--- a/AGILENT/METRICS/df_daily_level_TRANPOSE.xlsx
+++ b/AGILENT/METRICS/df_daily_level_TRANPOSE.xlsx
@@ -386,103 +386,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>43845</v>
-      </c>
-      <c r="C1" s="2"/>
+        <v>43857</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43858</v>
+      </c>
       <c r="D1" s="2">
-        <v>43846</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2">
-        <v>43847</v>
-      </c>
-      <c r="G1" s="2"/>
+        <v>43859</v>
+      </c>
+      <c r="E1" s="2">
+        <v>43860</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2">
+        <v>43861</v>
+      </c>
       <c r="H1" s="2">
-        <v>43851</v>
+        <v>43864</v>
       </c>
       <c r="I1" s="2"/>
-      <c r="J1" s="2">
-        <v>43852</v>
-      </c>
+      <c r="J1" s="2"/>
       <c r="K1" s="2">
-        <v>43853</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2">
-        <v>43854</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2">
-        <v>43855</v>
-      </c>
+        <v>43865</v>
+      </c>
+      <c r="L1" s="2">
+        <v>43866</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2">
+        <v>43867</v>
+      </c>
+      <c r="O1" s="2"/>
       <c r="P1" s="2">
-        <v>43857</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43858</v>
-      </c>
+        <v>43868</v>
+      </c>
+      <c r="Q1" s="2"/>
       <c r="R1" s="2">
-        <v>43859</v>
+        <v>43869</v>
       </c>
       <c r="S1" s="2">
-        <v>43860</v>
+        <v>43871</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2">
-        <v>43861</v>
+        <v>43872</v>
       </c>
       <c r="V1" s="2">
-        <v>43864</v>
-      </c>
-      <c r="W1" s="2"/>
+        <v>43873</v>
+      </c>
+      <c r="W1" s="2">
+        <v>43874</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2">
-        <v>43865</v>
+        <v>43875</v>
       </c>
       <c r="Z1" s="2">
-        <v>43866</v>
-      </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2">
-        <v>43867</v>
-      </c>
+        <v>43876</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>43879</v>
+      </c>
+      <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2">
-        <v>43868</v>
-      </c>
-      <c r="AE1" s="2"/>
+        <v>43880</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>43881</v>
+      </c>
       <c r="AF1" s="2">
-        <v>43869</v>
+        <v>43882</v>
       </c>
       <c r="AG1" s="2">
-        <v>43871</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>43872</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>43873</v>
-      </c>
+        <v>43885</v>
+      </c>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
       <c r="AJ1" s="2">
-        <v>43874</v>
-      </c>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2">
-        <v>43875</v>
+        <v>43886</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,19 +486,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -511,28 +507,28 @@
         <v>2</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" s="1">
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
@@ -541,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2" s="1">
         <v>1</v>
@@ -550,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
         <v>3</v>
@@ -562,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1">
         <v>3</v>
@@ -574,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="AE2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1">
         <v>1</v>
@@ -583,151 +579,136 @@
         <v>1</v>
       </c>
       <c r="AH2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ2" s="1">
         <v>1</v>
       </c>
-      <c r="AK2" s="1">
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>29</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
       </c>
-      <c r="AL2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>46</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>41</v>
+      </c>
+      <c r="V4">
+        <v>24</v>
+      </c>
+      <c r="W4">
+        <v>33</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>24</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
         <v>29</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>43</v>
-      </c>
-      <c r="K4">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>23</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>35</v>
-      </c>
-      <c r="Q4">
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>37</v>
+      </c>
+      <c r="AE4">
+        <v>29</v>
+      </c>
+      <c r="AF4">
+        <v>36</v>
+      </c>
+      <c r="AG4">
         <v>14</v>
       </c>
-      <c r="R4">
-        <v>24</v>
-      </c>
-      <c r="S4">
-        <v>21</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>8</v>
-      </c>
-      <c r="V4">
-        <v>10</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>33</v>
-      </c>
-      <c r="Z4">
-        <v>23</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>41</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>29</v>
-      </c>
-      <c r="AE4">
-        <v>3</v>
-      </c>
-      <c r="AF4">
-        <v>2</v>
-      </c>
-      <c r="AG4">
-        <v>47</v>
-      </c>
       <c r="AH4">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="AI4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AJ4">
-        <v>33</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="9">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AGILENT/METRICS/df_daily_level_TRANPOSE.xlsx
+++ b/AGILENT/METRICS/df_daily_level_TRANPOSE.xlsx
@@ -386,99 +386,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="C1" s="2">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="D1" s="2">
-        <v>43859</v>
-      </c>
-      <c r="E1" s="2">
         <v>43860</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2">
+        <v>43861</v>
+      </c>
       <c r="G1" s="2">
-        <v>43861</v>
-      </c>
-      <c r="H1" s="2">
         <v>43864</v>
       </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2">
+        <v>43865</v>
+      </c>
       <c r="K1" s="2">
-        <v>43865</v>
-      </c>
-      <c r="L1" s="2">
         <v>43866</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2">
         <v>43867</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2">
         <v>43868</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2">
+        <v>43869</v>
+      </c>
       <c r="R1" s="2">
-        <v>43869</v>
-      </c>
-      <c r="S1" s="2">
         <v>43871</v>
       </c>
-      <c r="T1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2">
+        <v>43872</v>
+      </c>
       <c r="U1" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="V1" s="2">
-        <v>43873</v>
-      </c>
-      <c r="W1" s="2">
         <v>43874</v>
       </c>
-      <c r="X1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2">
+        <v>43875</v>
+      </c>
       <c r="Y1" s="2">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="Z1" s="2">
-        <v>43876</v>
-      </c>
-      <c r="AA1" s="2">
         <v>43879</v>
       </c>
+      <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="AC1" s="2">
+        <v>43880</v>
+      </c>
       <c r="AD1" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="AE1" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="AF1" s="2">
-        <v>43882</v>
-      </c>
-      <c r="AG1" s="2">
         <v>43885</v>
       </c>
+      <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
+      <c r="AI1" s="2">
+        <v>43886</v>
+      </c>
       <c r="AJ1" s="2">
-        <v>43886</v>
+        <v>43887</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2">
+        <v>43888</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,52 +496,52 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
         <v>1</v>
@@ -546,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
         <v>1</v>
@@ -558,13 +562,13 @@
         <v>1</v>
       </c>
       <c r="AA2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1">
         <v>1</v>
@@ -576,139 +580,152 @@
         <v>1</v>
       </c>
       <c r="AG2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="1">
         <v>1</v>
       </c>
+      <c r="AK2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>33</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>29</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>46</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>41</v>
+      </c>
+      <c r="U4">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>33</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>24</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>29</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>37</v>
+      </c>
+      <c r="AD4">
+        <v>29</v>
+      </c>
+      <c r="AE4">
+        <v>36</v>
+      </c>
+      <c r="AF4">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>30</v>
+      </c>
+      <c r="AJ4">
         <v>33</v>
       </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>40</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
         <v>29</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>46</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>41</v>
-      </c>
-      <c r="V4">
-        <v>24</v>
-      </c>
-      <c r="W4">
-        <v>33</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>24</v>
-      </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-      <c r="AA4">
-        <v>29</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>37</v>
-      </c>
-      <c r="AE4">
-        <v>29</v>
-      </c>
-      <c r="AF4">
-        <v>36</v>
-      </c>
-      <c r="AG4">
-        <v>14</v>
-      </c>
-      <c r="AH4">
-        <v>2</v>
-      </c>
-      <c r="AI4">
-        <v>2</v>
-      </c>
-      <c r="AJ4">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AG1:AI1"/>
+  <mergeCells count="10">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AGILENT/METRICS/df_daily_level_TRANPOSE.xlsx
+++ b/AGILENT/METRICS/df_daily_level_TRANPOSE.xlsx
@@ -19,7 +19,7 @@
     <t>QCDate</t>
   </si>
   <si>
-    <t>QCValidation</t>
+    <t>ProductLevel</t>
   </si>
   <si>
     <t>Count</t>
@@ -386,103 +386,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>43858</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2">
         <v>43859</v>
-      </c>
-      <c r="D1" s="2">
-        <v>43860</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2">
+        <v>43860</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2">
         <v>43861</v>
       </c>
-      <c r="G1" s="2">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2">
         <v>43864</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2">
         <v>43865</v>
       </c>
-      <c r="K1" s="2">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2">
         <v>43866</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2">
         <v>43867</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2">
         <v>43868</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2">
-        <v>43869</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43871</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2">
-        <v>43872</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43873</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43874</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2">
-        <v>43875</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>43876</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>43879</v>
-      </c>
-      <c r="AA1" s="2"/>
+        <v>43871</v>
+      </c>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2">
+        <v>43872</v>
+      </c>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2">
+        <v>43873</v>
+      </c>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2">
+        <v>43874</v>
+      </c>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2">
+        <v>43875</v>
+      </c>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2">
+        <v>43879</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2">
         <v>43880</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2">
         <v>43881</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2">
         <v>43882</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2">
         <v>43885</v>
       </c>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2">
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2">
         <v>43886</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2">
         <v>43887</v>
       </c>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2">
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2">
         <v>43888</v>
       </c>
+      <c r="BB1" s="2"/>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:54">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -502,230 +514,338 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
         <v>3</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1">
         <v>3</v>
       </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1">
         <v>3</v>
       </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1">
         <v>3</v>
       </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
         <v>3</v>
       </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="1">
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="1">
         <v>3</v>
       </c>
-      <c r="AC2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="1">
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="1">
         <v>3</v>
       </c>
-      <c r="AI2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="1">
+      <c r="AV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="1">
         <v>3</v>
       </c>
-      <c r="AL2" s="1">
-        <v>1</v>
+      <c r="BA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:54">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="T4">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>33</v>
-      </c>
-      <c r="K4">
-        <v>23</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>40</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>29</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>46</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>41</v>
-      </c>
       <c r="U4">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="X4">
         <v>24</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Z4">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AC4">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AD4">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AE4">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="AF4">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AI4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AJ4">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AK4">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AL4">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>21</v>
+      </c>
+      <c r="AN4">
+        <v>13</v>
+      </c>
+      <c r="AO4">
+        <v>8</v>
+      </c>
+      <c r="AP4">
+        <v>16</v>
+      </c>
+      <c r="AQ4">
+        <v>10</v>
+      </c>
+      <c r="AR4">
+        <v>25</v>
+      </c>
+      <c r="AS4">
+        <v>9</v>
+      </c>
+      <c r="AT4">
+        <v>4</v>
+      </c>
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <v>7</v>
+      </c>
+      <c r="AW4">
+        <v>22</v>
+      </c>
+      <c r="AX4">
+        <v>13</v>
+      </c>
+      <c r="AY4">
+        <v>13</v>
+      </c>
+      <c r="AZ4">
+        <v>4</v>
+      </c>
+      <c r="BA4">
+        <v>19</v>
+      </c>
+      <c r="BB4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
